--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3659.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3659.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.221872560701909</v>
+        <v>1.235323905944824</v>
       </c>
       <c r="B1">
-        <v>1.547885005700686</v>
+        <v>1.425225257873535</v>
       </c>
       <c r="C1">
-        <v>2.274621453647744</v>
+        <v>1.181261897087097</v>
       </c>
       <c r="D1">
-        <v>7.578472857523202</v>
+        <v>1.198772788047791</v>
       </c>
       <c r="E1">
-        <v>3.039930147645773</v>
+        <v>1.123106122016907</v>
       </c>
     </row>
   </sheetData>
